--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_20_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_20_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60273.69280970576</v>
+        <v>11994464.86913143</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60273.69280970576</v>
+        <v>11994464.86913143</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1045.89261713625</v>
+        <v>67411.87201445282</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1045.89261713625</v>
+        <v>67411.87201445282</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036232680.700902</v>
+        <v>42952238.01649471</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9103.678330940049</v>
+        <v>1028695.027159137</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17047.65378927564</v>
+        <v>1877561.115687302</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24991.62924761122</v>
+        <v>2726427.204215467</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32935.60470594661</v>
+        <v>3575293.292743659</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40879.58016428191</v>
+        <v>4424159.381271874</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48823.55562261605</v>
+        <v>5273025.469800262</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56767.53108094971</v>
+        <v>6121891.558328734</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>64711.50653928353</v>
+        <v>6970757.646857174</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72655.48199761883</v>
+        <v>7819623.735385384</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>80599.45745595411</v>
+        <v>8668489.823913595</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>88543.43291428937</v>
+        <v>9517355.912441809</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>96487.40837262476</v>
+        <v>10366222.00097002</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>104431.3838309601</v>
+        <v>11215088.08949824</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>112375.3592892956</v>
+        <v>12063954.17802642</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>120319.3347476311</v>
+        <v>12912820.2665546</v>
       </c>
     </row>
   </sheetData>
@@ -27040,16 +27040,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>400.0000000000552</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>5.000000000258638</v>
@@ -27064,7 +27064,7 @@
         <v>399.9999999997345</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>5.000000000257275</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>359</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
